--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_2_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_2_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.57862206369589, 72.55346371506519]</t>
+          <t>[53.63328437812582, 72.49880140063526]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.440289725069193, 1.7925003128590413]</t>
+          <t>[1.452868674633116, 1.7799213632951183]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.110280820606164, 56.60830880017525]</t>
+          <t>[44.108796344837565, 56.60979327594385]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -640,10 +640,10 @@
         <v>18.56856856856892</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.8678678678682</v>
+        <v>17.91791791791826</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.26926926926964</v>
+        <v>19.21921921921959</v>
       </c>
     </row>
     <row r="3">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[52.42727503811916, 73.31956449006867]</t>
+          <t>[52.798982310611464, 72.94785721757637]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P3" t="n">
         <v>1.415131825941349</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.367862517595945, 55.21497451550446]</t>
+          <t>[42.369643162117754, 55.21319387098265]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.08233729422777, 75.0188891756012]</t>
+          <t>[51.28163510373935, 74.81959136608963]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.860379014346108e-14</v>
+        <v>4.551914400963142e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>7.860379014346108e-14</v>
+        <v>4.551914400963142e-14</v>
       </c>
       <c r="P4" t="n">
         <v>1.150973885098963</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.82270326770861, 56.02964097611491]</t>
+          <t>[42.82163894282414, 56.03070530099939]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,35 +857,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[50.60109933756549, 76.68132999778476]</t>
+          <t>[50.535682615585955, 76.7467467197643]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.881784197001252e-13</v>
+        <v>1.037170349604821e-12</v>
       </c>
       <c r="O5" t="n">
-        <v>8.881784197001252e-13</v>
+        <v>1.037170349604821e-12</v>
       </c>
       <c r="P5" t="n">
         <v>0.8868159442565782</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.0880791372793475]</t>
+          <t>[0.6729738016698859, 1.1006580868432705]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.906363955583856e-11</v>
+        <v>1.063436005921403e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>1.906363955583856e-11</v>
+        <v>1.063436005921403e-10</v>
       </c>
       <c r="T5" t="n">
         <v>49.95414664336904</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.29563178865242, 56.612661498085664]</t>
+          <t>[43.29437579788266, 56.61391748885543]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>21.47147147147187</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.67067067067106</v>
+        <v>20.62062062062101</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.27227227227269</v>
+        <v>22.32232232232274</v>
       </c>
     </row>
     <row r="6">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[51.49208892752866, 77.15949952375877]</t>
+          <t>[51.35419867741997, 77.29738977386747]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.861355679646294e-13</v>
+        <v>5.402345237826012e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>3.861355679646294e-13</v>
+        <v>5.402345237826012e-13</v>
       </c>
       <c r="P6" t="n">
         <v>0.6226580034141929</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.70285183368841, 56.98126182435827]</t>
+          <t>[43.711126120683744, 56.97298753736294]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,35 +1029,35 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[52.895942438319835, 76.73238261598594]</t>
+          <t>[52.42780036063901, 77.20052469366676]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.775557561562891e-14</v>
+        <v>9.769962616701378e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>2.775557561562891e-14</v>
+        <v>9.769962616701378e-14</v>
       </c>
       <c r="P7" t="n">
         <v>0.3710790121357306</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.1698158191129604, 0.5723422051585008]</t>
+          <t>[0.1823947686768843, 0.5597632555945768]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.000561620576025712</v>
+        <v>0.0002632491671181736</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000561620576025712</v>
+        <v>0.0002632491671181736</v>
       </c>
       <c r="T7" t="n">
         <v>50.56568345696849</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.959994883066805, 57.17137203087017]</t>
+          <t>[43.955951022157, 57.17541589177997]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1070,10 +1070,10 @@
         <v>23.52352352352397</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.72272272272315</v>
+        <v>22.7727727727732</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.32432432432478</v>
+        <v>24.27427427427473</v>
       </c>
     </row>
     <row r="8">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[54.30856764119807, 75.53470100707463]</t>
+          <t>[54.288124998258695, 75.555143650014]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P8" t="n">
         <v>0.1320789704211922</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.01393785612956, 57.208708453697255]</t>
+          <t>[44.017433585163886, 57.20521272466293]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[51.56889496168756, 73.90024675648348]</t>
+          <t>[51.76860877689781, 73.70053294127324]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>9.325873406851315e-15</v>
+        <v>5.10702591327572e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>9.325873406851315e-15</v>
+        <v>5.10702591327572e-15</v>
       </c>
       <c r="P9" t="n">
         <v>-0.2893158399702314</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.890644422317266, 55.718021527637276]</t>
+          <t>[42.895427588979516, 55.713238360975026]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[53.460763121107306, 71.77605828194257]</t>
+          <t>[53.28461774871158, 71.95220365433829]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.83486113002845, 55.67448567649317]</t>
+          <t>[42.84075548335037, 55.66859132317125]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,35 +1373,35 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[52.067025386075855, 73.84030922484433]</t>
+          <t>[51.7641055842452, 74.14322902667499]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>9.103828801926284e-15</v>
       </c>
       <c r="O11" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>9.103828801926284e-15</v>
       </c>
       <c r="P11" t="n">
         <v>0.2704474156243464</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.09434212172942225, 0.4465527095192705]</t>
+          <t>[0.08176317216549922, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.003398070425195909</v>
+        <v>0.005958489945543821</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003398070425195909</v>
+        <v>0.005958489945543821</v>
       </c>
       <c r="T11" t="n">
         <v>49.40238482481304</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.00529781669769, 55.79947183292839]</t>
+          <t>[43.010044596901245, 55.794725052724836]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1414,10 +1414,10 @@
         <v>21.92388388388402</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.28176176176189</v>
+        <v>21.23589589589603</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.56600600600615</v>
+        <v>22.61187187187202</v>
       </c>
     </row>
     <row r="12">
@@ -1459,35 +1459,35 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.65753333334362, 75.52145966291992]</t>
+          <t>[51.85451985935853, 75.32447313690501]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.395683899678261e-14</v>
+        <v>3.130828929442941e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>5.395683899678261e-14</v>
+        <v>3.130828929442941e-14</v>
       </c>
       <c r="P12" t="n">
         <v>0.5346053564667317</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.3333421634439624, 0.735868549489501]</t>
+          <t>[0.3459211130078854, 0.723289599925578]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.845477669044527e-06</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>2.845477669044527e-06</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="T12" t="n">
         <v>49.7363478791304</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.364482502926805, 56.10821325533399]</t>
+          <t>[43.36181403393299, 56.11088172432781]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>20.96070070070083</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.22684684684697</v>
+        <v>20.27271271271284</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.69455455455469</v>
+        <v>21.64868868868882</v>
       </c>
     </row>
     <row r="13">
@@ -1545,35 +1545,35 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[51.69054536334788, 76.55757137981111]</t>
+          <t>[51.71313204093056, 76.53498470222843]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.56097357262297e-13</v>
+        <v>1.469935284603707e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.56097357262297e-13</v>
+        <v>1.469935284603707e-13</v>
       </c>
       <c r="P13" t="n">
         <v>0.8616580451287321</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 1.0629212381515023]</t>
+          <t>[0.672973801669885, 1.0503422885875793]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.352140869912091e-11</v>
+        <v>6.676437180885841e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>4.352140869912091e-11</v>
+        <v>6.676437180885841e-12</v>
       </c>
       <c r="T13" t="n">
         <v>52.47117449185301</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.030626806229684, 58.91172217747634]</t>
+          <t>[46.02700788827872, 58.91534109542731]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1586,10 +1586,10 @@
         <v>19.76818818818831</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.03433433433445</v>
+        <v>19.08020020020032</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.50204204204217</v>
+        <v>20.45617617617631</v>
       </c>
     </row>
     <row r="14">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[52.39929804216875, 76.53584207812229]</t>
+          <t>[52.38624151652438, 76.54889860376666]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.996003610813204e-14</v>
+        <v>5.173639294753229e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>4.996003610813204e-14</v>
+        <v>5.173639294753229e-14</v>
       </c>
       <c r="P14" t="n">
         <v>1.17613178422681</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.51135417324286, 57.875740768435726]</t>
+          <t>[44.508224377549425, 57.87887056412916]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,21 +1717,21 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[52.695275103454534, 75.35746814635927]</t>
+          <t>[53.013770746709085, 75.03897250310472]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="O15" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="P15" t="n">
         <v>1.490605523324888</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.3145002294299628, 1.6667108172198128]</t>
+          <t>[1.3019212798660407, 1.679289766783735]</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[43.00200767710462, 56.99816505897257]</t>
+          <t>[42.999949730698965, 57.000223005378224]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1758,10 +1758,10 @@
         <v>17.474894894895</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.83277277277287</v>
+        <v>16.78690690690701</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.11701701701713</v>
+        <v>18.162882882883</v>
       </c>
     </row>
     <row r="16">
@@ -1803,14 +1803,14 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[53.02075850741359, 75.9143708337008]</t>
+          <t>[52.826940245212825, 76.10818909590157]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="O16" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="P16" t="n">
         <v>1.805079262422964</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.119579921150596, 55.49334885965873]</t>
+          <t>[42.11997943734535, 55.49294934346398]</t>
         </is>
       </c>
       <c r="V16" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_2_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_2_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.63328437812582, 72.49880140063526]</t>
+          <t>[53.98899708557106, 72.14308869319002]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 1.7799213632951183]</t>
+          <t>[1.440289725069193, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.108796344837565, 56.60979327594385]</t>
+          <t>[44.10840685456307, 56.610182766218344]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -640,10 +640,10 @@
         <v>18.56856856856892</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.91791791791826</v>
+        <v>17.8678678678682</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.21921921921959</v>
+        <v>19.26926926926964</v>
       </c>
     </row>
     <row r="3">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[52.798982310611464, 72.94785721757637]</t>
+          <t>[52.36424508158029, 73.38259444660754]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="P3" t="n">
         <v>1.415131825941349</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.369643162117754, 55.21319387098265]</t>
+          <t>[42.36573780696, 55.217099226140405]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.28163510373935, 74.81959136608963]</t>
+          <t>[51.24422186583387, 74.85700460399511]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.551914400963142e-14</v>
+        <v>5.040412531798211e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>4.551914400963142e-14</v>
+        <v>5.040412531798211e-14</v>
       </c>
       <c r="P4" t="n">
         <v>1.150973885098963</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.82163894282414, 56.03070530099939]</t>
+          <t>[42.82112003600777, 56.031224207815754]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,35 +857,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[50.535682615585955, 76.7467467197643]</t>
+          <t>[50.80835176509292, 76.47407757025734]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.037170349604821e-12</v>
+        <v>5.39346345362901e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.037170349604821e-12</v>
+        <v>5.39346345362901e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0.8868159442565782</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6729738016698859, 1.1006580868432705]</t>
+          <t>[0.6855527512338089, 1.0880791372793475]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.063436005921403e-10</v>
+        <v>1.906363955583856e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>1.063436005921403e-10</v>
+        <v>1.906363955583856e-11</v>
       </c>
       <c r="T5" t="n">
         <v>49.95414664336904</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.29437579788266, 56.61391748885543]</t>
+          <t>[43.296680363785725, 56.61161292295236]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>21.47147147147187</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.62062062062101</v>
+        <v>20.67067067067106</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.32232232232274</v>
+        <v>22.27227227227269</v>
       </c>
     </row>
     <row r="6">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[51.35419867741997, 77.29738977386747]</t>
+          <t>[51.49042280571767, 77.16116564556977]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.402345237826012e-13</v>
+        <v>3.876898801991047e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>5.402345237826012e-13</v>
+        <v>3.876898801991047e-13</v>
       </c>
       <c r="P6" t="n">
         <v>0.6226580034141929</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.711126120683744, 56.97298753736294]</t>
+          <t>[43.70116906257505, 56.982944595471636]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[52.42780036063901, 77.20052469366676]</t>
+          <t>[52.97840077231017, 76.64992428199561]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9.769962616701378e-14</v>
+        <v>2.19824158875781e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>9.769962616701378e-14</v>
+        <v>2.19824158875781e-14</v>
       </c>
       <c r="P7" t="n">
         <v>0.3710790121357306</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.955951022157, 57.17541589177997]</t>
+          <t>[43.95923321745951, 57.17213369647746]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[54.288124998258695, 75.555143650014]</t>
+          <t>[54.14439697086725, 75.69887167740545]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O8" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="P8" t="n">
         <v>0.1320789704211922</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.031447373909808896, 0.2956053147521933]</t>
+          <t>[-0.04402632347373103, 0.30818426431611545]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1107679696613735</v>
+        <v>0.1378868762615164</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1107679696613735</v>
+        <v>0.1378868762615164</v>
       </c>
       <c r="T8" t="n">
         <v>50.61132315491341</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.017433585163886, 57.20521272466293]</t>
+          <t>[44.01077266878259, 57.21187364104422]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>24.47447447447493</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.82382382382427</v>
+        <v>23.77377377377422</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.1251251251256</v>
+        <v>25.17517517517565</v>
       </c>
     </row>
     <row r="9">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[51.76860877689781, 73.70053294127324]</t>
+          <t>[51.929452396058934, 73.53968932211211]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="P9" t="n">
         <v>-0.2893158399702314</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.895427588979516, 55.713238360975026]</t>
+          <t>[42.891236564634255, 55.71742938532029]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[53.28461774871158, 71.95220365433829]</t>
+          <t>[53.15309275034389, 72.08372865270599]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1301,21 +1301,21 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.1823947686768852, 0.15723686954903915]</t>
+          <t>[-0.17610529389492324, 0.1509473947670772]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8820680943656689</v>
+        <v>0.8775685323512714</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8820680943656689</v>
+        <v>0.8775685323512714</v>
       </c>
       <c r="T10" t="n">
         <v>49.25467340326081</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.84075548335037, 55.66859132317125]</t>
+          <t>[42.83348344068252, 55.6758633658391]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1328,10 +1328,10 @@
         <v>0.04586586586586705</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.5733233233233274</v>
+        <v>-0.5503903903903928</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6650550550550615</v>
+        <v>0.6421221221221269</v>
       </c>
     </row>
     <row r="11">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[51.7641055842452, 74.14322902667499]</t>
+          <t>[52.122306786938324, 73.78502782398186]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="O11" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="P11" t="n">
         <v>0.2704474156243464</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.010044596901245, 55.794725052724836]</t>
+          <t>[43.00428829666645, 55.80048135295963]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,35 +1459,35 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.85451985935853, 75.32447313690501]</t>
+          <t>[52.11558942398135, 75.0634035722822]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.130828929442941e-14</v>
+        <v>1.48769885299771e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>3.130828929442941e-14</v>
+        <v>1.48769885299771e-14</v>
       </c>
       <c r="P12" t="n">
         <v>0.5346053564667317</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 0.723289599925578]</t>
+          <t>[0.3333421634439624, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>2.845477669044527e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>2.845477669044527e-06</v>
       </c>
       <c r="T12" t="n">
         <v>49.7363478791304</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.36181403393299, 56.11088172432781]</t>
+          <t>[43.364200586142005, 56.10849517211879]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>20.96070070070083</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.27271271271284</v>
+        <v>20.22684684684697</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.64868868868882</v>
+        <v>21.69455455455469</v>
       </c>
     </row>
     <row r="13">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[51.71313204093056, 76.53498470222843]</t>
+          <t>[51.38953220836227, 76.85858453479672]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.469935284603707e-13</v>
+        <v>3.339550858072471e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.469935284603707e-13</v>
+        <v>3.339550858072471e-13</v>
       </c>
       <c r="P13" t="n">
         <v>0.8616580451287321</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.02700788827872, 58.91534109542731]</t>
+          <t>[46.03272368638268, 58.909625297323345]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[52.38624151652438, 76.54889860376666]</t>
+          <t>[52.32975479617688, 76.60538532411417]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.173639294753229e-14</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>5.173639294753229e-14</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="P14" t="n">
         <v>1.17613178422681</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.508224377549425, 57.87887056412916]</t>
+          <t>[44.51494011809288, 57.8721548235857]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[53.013770746709085, 75.03897250310472]</t>
+          <t>[53.02082704911348, 75.03191620070032]</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[42.999949730698965, 57.000223005378224]</t>
+          <t>[42.99762607376283, 57.00254666231436]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1803,14 +1803,14 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[52.826940245212825, 76.10818909590157]</t>
+          <t>[53.14476950445845, 75.79035983665594]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="P16" t="n">
         <v>1.805079262422964</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.11997943734535, 55.49294934346398]</t>
+          <t>[42.11966529595428, 55.49326348485505]</t>
         </is>
       </c>
       <c r="V16" t="n">
